--- a/New files/Astria Health/10213960 Astria Sunnyside - 206000 ICU.xlsx
+++ b/New files/Astria Health/10213960 Astria Sunnyside - 206000 ICU.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38249B58-3EAE-4446-9C8F-20681754B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6809FAA4-AB1B-486E-838B-5C32A7CF1517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AB07103-C963-4369-BFF9-58877D8A904B}"/>
+    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{D96A3F94-2B35-48AF-BA86-10B63592A98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -831,16 +831,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>392430</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066F7E7E-4350-6493-48E5-7B93BD7301CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F374D4D-4164-DFA3-C70A-F12398A6D08D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3884D3B0-8143-4EFE-A520-C83A1757EA44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C9D357-AE66-46BF-A442-0207822E6D88}">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1622,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D5DE1C-0231-42AB-B66D-67DBF3DAA0BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE2CB6C-D87D-48EC-A01D-4C1B3210D9F9}">
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/New files/Astria Health/10213960 Astria Sunnyside - 206000 ICU.xlsx
+++ b/New files/Astria Health/10213960 Astria Sunnyside - 206000 ICU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6809FAA4-AB1B-486E-838B-5C32A7CF1517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6722E3-4392-4F9A-A4C9-AB7D3EC850BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{D96A3F94-2B35-48AF-BA86-10B63592A98E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A5925306-28DF-4488-9EDD-6EE8A3643B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -827,20 +827,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>392430</xdr:colOff>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F374D4D-4164-DFA3-C70A-F12398A6D08D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B429D7-1B4E-ED92-0AB1-4007DC430C98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C9D357-AE66-46BF-A442-0207822E6D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44DE920-F0F7-4C44-86D2-66348A9E5D16}">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1204,9 +1204,9 @@
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1622,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE2CB6C-D87D-48EC-A01D-4C1B3210D9F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93666D6E-21F6-4C9B-907E-960BC9AE50CD}">
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1633,17 +1633,17 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/New files/Astria Health/10213960 Astria Sunnyside - 206000 ICU.xlsx
+++ b/New files/Astria Health/10213960 Astria Sunnyside - 206000 ICU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6722E3-4392-4F9A-A4C9-AB7D3EC850BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7557A93-3ABC-448E-9451-DBC4E680FFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A5925306-28DF-4488-9EDD-6EE8A3643B0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84BB0CEF-44CF-44AC-B5C4-A99A174460B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -827,20 +827,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B429D7-1B4E-ED92-0AB1-4007DC430C98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3B9E91-56F6-497A-E052-48D0F698A4EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44DE920-F0F7-4C44-86D2-66348A9E5D16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7857E8C-C2DC-4F24-BE7B-0993800E30D6}">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1199,14 +1199,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1622,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93666D6E-21F6-4C9B-907E-960BC9AE50CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9662ED7D-26AF-4AF6-B9BB-D21FC65E8CB0}">
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1633,17 +1633,17 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
